--- a/airports.xlsx
+++ b/airports.xlsx
@@ -1,146 +1,178 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\M.s\Thesis\GitHub\GradThesis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2405C085-444D-484A-AA13-0BD61F9836A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="airports.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="airports" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
-    <t>AJA 0 0 00:00 05:00 1 1 05:00 14:00 2 1 14:00 16:00 1 1 16:00 18:00 1 2 18:00 20:00 1 1 20:00 00:00</t>
+    <t>AJA</t>
   </si>
   <si>
-    <t>Departure 0 capacity/h-Arival 0 Capacity/h- between 00:00 and 5:00</t>
+    <t>AMS</t>
   </si>
   <si>
-    <t>AMS 1 1 00:00 07:00 4 2 07:00 09:00 1 1 09:00 12:00 2 3 12:00 15:00 1 1 15:00 17:00 3 3 17:00 19:00 1 1 19:00 00:00</t>
+    <t>AVN</t>
   </si>
   <si>
-    <t>AVN 0 0 00:00 05:00 1 1 05:00 21:00 0 0 21:00 00:00</t>
+    <t>BES</t>
   </si>
   <si>
-    <t>BES 1 1 00:00 05:00 3 1 05:00 07:00 1 1 07:00 09:00 3 3 09:00 14:00 2 2 14:00 00:00</t>
+    <t>BIA</t>
   </si>
   <si>
-    <t>BIA 1 1 00:00 00:00</t>
+    <t>BIQ</t>
   </si>
   <si>
-    <t>BIQ 1 1 00:00 05:00 2 1 05:00 07:00 1 1 07:00 20:00 1 2 20:00 22:00 1 1 22:00 00:00</t>
+    <t>BOD</t>
   </si>
   <si>
-    <t>BOD 1 1 00:00 05:00 2 1 05:00 07:00 2 2 07:00 20:00 1 2 20:00 22:00 1 1 22:00 00:00</t>
+    <t>CDG</t>
   </si>
   <si>
-    <t>CDG 4 4 00:00 06:00 8 10 06:00 08:00 10 8 08:00 11:00 12 14 11:00 13:00 8 8 13:00 17:00 12 8 17:00 18:00 8 6 18:00 20:00 12 8 20:00 22:00 4 4 22:00 00:00</t>
+    <t>CFE</t>
   </si>
   <si>
-    <t>CFE 0 0 00:00 05:00 2 1 05:00 07:00 1 1 07:00 15:00 2 2 15:00 18:00 1 1 18:00 00:00</t>
+    <t>CFR</t>
   </si>
   <si>
-    <t>CFR 0 0 00:00 05:00 1 1 05:00 21:00 0 0 21:00 00:00</t>
+    <t>CLY</t>
   </si>
   <si>
-    <t>CLY 0 0 00:00 05:00 1 1 05:00 21:00 0 0 21:00 00:00</t>
+    <t>ETZ</t>
   </si>
   <si>
-    <t>ETZ 0 0 00:00 05:00 1 1 05:00 00:00</t>
+    <t>FSC</t>
   </si>
   <si>
-    <t>FSC 0 0 00:00 05:00 1 1 05:00 00:00</t>
+    <t>LDE</t>
   </si>
   <si>
-    <t>LDE 0 0 00:00 05:00 1 1 05:00 21:00 0 0 21:00 00:00</t>
+    <t>LEH</t>
   </si>
   <si>
-    <t>LEH 0 0 00:00 05:00 1 1 05:00 00:00</t>
+    <t>LGW</t>
   </si>
   <si>
-    <t>LGW 1 1 00:00 07:00 2 2 07:00 09:00 1 1 09:00 00:00</t>
+    <t>LIG</t>
   </si>
   <si>
-    <t>LIG 0 0 00:00 05:00 2 1 05:00 07:00 1 1 07:00 00:00</t>
+    <t>LIL</t>
   </si>
   <si>
-    <t>LIL 1 1 00:00 00:00</t>
+    <t>LRT</t>
   </si>
   <si>
-    <t>LRT 0 0 00:00 05:00 1 1 05:00 13:00 2 2 13:00 15:00 1 1 15:00 21:00 0 0 21:00 00:00</t>
+    <t>LYS</t>
   </si>
   <si>
-    <t>LYS 2 2 00:00 06:00 10 8 06:00 08:00 4 3 08:00 11:00 3 2 11:00 13:00 4 6 13:00 15:00 6 2 15:00 17:00 2 3 17:00 20:00 2 2 20:00 00:00</t>
+    <t>MLH</t>
   </si>
   <si>
-    <t>MLH 1 1 00:00 09:00 2 2 09:00 15:00 1 1 15:00 00:00</t>
+    <t>MPL</t>
   </si>
   <si>
-    <t>MPL 1 1 00:00 05:00 2 1 05:00 07:00 1 1 07:00 09:00 2 2 09:00 11:00 4 3 11:00 13:00 1 1 13:00 19:00 1 2 19:00 22:00 1 1 22:00 00:00</t>
+    <t>MRS</t>
   </si>
   <si>
-    <t>MRS 1 1 00:00 05:00 3 1 05:00 07:00 1 3 07:00 09:00 4 4 09:00 15:00 4 3 15:00 17:00 2 3 17:00 20:00 1 3 20:00 22:00 1 1 22:00 00:00</t>
+    <t>NCE</t>
   </si>
   <si>
-    <t>NCE 1 1 00:00 05:00 4 1 05:00 07:00 2 4 07:00 09:00 4 4 09:00 11:00 5 5 11:00 14:00 3 3 14:00 16:00 4 6 16:00 18:00 3 2 18:00 20:00 1 3 20:00 22:00 1 1 22:00 00:00</t>
+    <t>NTE</t>
   </si>
   <si>
-    <t>NTE 1 1 00:00 05:00 2 1 05:00 07:00 3 1 07:00 09:00 5 4 09:00 11:00 3 3 11:00 15:00 2 1 15:00 17:00 1 2 17:00 22:00 1 1 22:00 00:00</t>
+    <t>ORY</t>
   </si>
   <si>
-    <t>ORY 4 4 00:00 06:00 15 15 06:00 08:00 17 12 08:00 11:00 15 15 11:00 13:00 12 15 13:00 16:00 15 12 16:00 20:00 12 8 20:00 22:00 4 4 22:00 00:00</t>
+    <t>PGF</t>
   </si>
   <si>
-    <t>PGF 0 0 00:00 05:00 1 1 05:00 00:00</t>
+    <t>PUF</t>
   </si>
   <si>
-    <t>PUF 1 1 00:00 05:00 2 1 05:00 07:00 1 1 07:00 09:00 2 2 09:00 11:00 1 1 11:00 18:00 2 2 18:00 00:00</t>
+    <t>RDZ</t>
   </si>
   <si>
-    <t>RDZ 0 0 00:00 05:00 1 1 05:00 21:00 0 0 21:00 00:00</t>
+    <t>RNS</t>
   </si>
   <si>
-    <t>RNS 1 1 00:00 05:00 2 1 05:00 07:00 1 1 07:00 09:00 1 2 09:00 11:00 1 1 11:00 13:00 2 2 13:00 15:00 1 2 15:00 17:00 2 2 17:00 19:00 1 1 19:00 00:00</t>
+    <t>SXB</t>
   </si>
   <si>
-    <t>SXB 1 1 00:00 05:00 2 1 05:00 07:00 1 2 07:00 09:00 3 3 09:00 11:00 2 2 11:00 14:00 2 2 14:00 16:00 1 1 16:00 18:00 1 2 18:00 22:00 1 1 22:00 00:00</t>
+    <t>TLN</t>
   </si>
   <si>
-    <t>TLN 0 0 00:00 05:00 1 1 05:00 00:00</t>
+    <t>TLS</t>
   </si>
   <si>
-    <t>TLS 1 1 00:00 05:00 3 1 05:00 07:00 6 4 07:00 09:00 4 4 09:00 12:00 6 2 12:00 14:00 4 2 14:00 16:00 4 6 16:00 18:00 3 3 18:00 20:00 1 3 20:00 00:00</t>
+    <t>UIP</t>
   </si>
   <si>
-    <t>UIP 0 0 00:00 05:00 1 1 05:00 21:00 0 0 21:00 00:00</t>
+    <t>URO</t>
   </si>
   <si>
-    <t>URO 0 0 00:00 05:00 1 1 05:00 00:00</t>
+    <t>Airport</t>
   </si>
   <si>
-    <t>#</t>
+    <t>dep cap/h</t>
   </si>
   <si>
-    <t xml:space="preserve">Airport Capacity : maximum number of operations allowed per one-hour interval </t>
+    <t>arr cap/h</t>
+  </si>
+  <si>
+    <t>Between</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -149,36 +181,188 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -368,213 +552,3789 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AA2E2B-994C-40B9-9834-C64498D74C65}">
+  <dimension ref="A1:AO36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="91.38"/>
-    <col customWidth="1" min="2" max="2" width="55.5"/>
-    <col customWidth="1" min="3" max="3" width="21.38"/>
+    <col min="1" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="6.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="15" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="19" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.88671875" style="1"/>
+    <col min="22" max="23" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="8.88671875" style="1"/>
+    <col min="26" max="26" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="8.88671875" style="1"/>
+    <col min="30" max="30" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="8.88671875" style="1"/>
+    <col min="34" max="35" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.88671875" style="1"/>
+    <col min="38" max="39" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="18"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="18"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>300</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>300</v>
+      </c>
+      <c r="I2" s="7">
+        <v>840</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5">
+        <v>840</v>
+      </c>
+      <c r="M2" s="13">
+        <v>960</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5">
+        <v>960</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>1080</v>
+      </c>
+      <c r="R2" s="8">
+        <v>1</v>
+      </c>
+      <c r="S2" s="5">
+        <v>2</v>
+      </c>
+      <c r="T2" s="5">
+        <v>1080</v>
+      </c>
+      <c r="U2" s="13">
+        <v>1200</v>
+      </c>
+      <c r="V2" s="8">
+        <v>1</v>
+      </c>
+      <c r="W2" s="5">
+        <v>1</v>
+      </c>
+      <c r="X2" s="5">
+        <v>1200</v>
+      </c>
+      <c r="Y2" s="13">
+        <v>1450</v>
+      </c>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="13">
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>420</v>
+      </c>
+      <c r="F3" s="8">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>420</v>
+      </c>
+      <c r="I3" s="7">
+        <v>540</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5">
+        <v>540</v>
+      </c>
+      <c r="M3" s="13">
+        <v>720</v>
+      </c>
+      <c r="N3" s="8">
+        <v>2</v>
+      </c>
+      <c r="O3" s="5">
         <v>3</v>
       </c>
+      <c r="P3" s="5">
+        <v>720</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>900</v>
+      </c>
+      <c r="R3" s="8">
+        <v>1</v>
+      </c>
+      <c r="S3" s="5">
+        <v>1</v>
+      </c>
+      <c r="T3" s="5">
+        <v>900</v>
+      </c>
+      <c r="U3" s="13">
+        <v>1020</v>
+      </c>
+      <c r="V3" s="8">
+        <v>3</v>
+      </c>
+      <c r="W3" s="5">
+        <v>3</v>
+      </c>
+      <c r="X3" s="5">
+        <v>1020</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>1140</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>1140</v>
+      </c>
+      <c r="AC3" s="13">
+        <v>1450</v>
+      </c>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>300</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>300</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1260</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1260</v>
+      </c>
+      <c r="M4" s="13">
+        <v>1450</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="13">
+        <v>0</v>
+      </c>
+      <c r="V4" s="8"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>300</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>300</v>
+      </c>
+      <c r="I5" s="7">
+        <v>420</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>420</v>
+      </c>
+      <c r="M5" s="13">
+        <v>540</v>
+      </c>
+      <c r="N5" s="8">
+        <v>3</v>
+      </c>
+      <c r="O5" s="5">
+        <v>3</v>
+      </c>
+      <c r="P5" s="5">
+        <v>540</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>840</v>
+      </c>
+      <c r="R5" s="8">
+        <v>2</v>
+      </c>
+      <c r="S5" s="5">
+        <v>2</v>
+      </c>
+      <c r="T5" s="5">
+        <v>840</v>
+      </c>
+      <c r="U5" s="13">
+        <v>1450</v>
+      </c>
+      <c r="V5" s="8"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="13">
+        <v>0</v>
+      </c>
+      <c r="V6" s="8"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>300</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>300</v>
+      </c>
+      <c r="I7" s="7">
+        <v>420</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>420</v>
+      </c>
+      <c r="M7" s="13">
+        <v>1200</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
+        <v>2</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1200</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>1320</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1</v>
+      </c>
+      <c r="S7" s="5">
+        <v>1</v>
+      </c>
+      <c r="T7" s="5">
+        <v>1320</v>
+      </c>
+      <c r="U7" s="13">
+        <v>1450</v>
+      </c>
+      <c r="V7" s="8"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>300</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>300</v>
+      </c>
+      <c r="I8" s="7">
+        <v>420</v>
+      </c>
+      <c r="J8" s="8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>420</v>
+      </c>
+      <c r="M8" s="13">
+        <v>1200</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2</v>
+      </c>
+      <c r="P8" s="5">
+        <v>1200</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>1320</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1</v>
+      </c>
+      <c r="S8" s="5">
+        <v>1</v>
+      </c>
+      <c r="T8" s="5">
+        <v>1320</v>
+      </c>
+      <c r="U8" s="13">
+        <v>1450</v>
+      </c>
+      <c r="V8" s="8"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>360</v>
+      </c>
+      <c r="F9" s="8">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6">
+        <v>360</v>
+      </c>
+      <c r="I9" s="7">
+        <v>480</v>
+      </c>
+      <c r="J9" s="8">
+        <v>10</v>
+      </c>
+      <c r="K9" s="5">
+        <v>8</v>
+      </c>
+      <c r="L9" s="5">
+        <v>480</v>
+      </c>
+      <c r="M9" s="13">
+        <v>660</v>
+      </c>
+      <c r="N9" s="8">
+        <v>12</v>
+      </c>
+      <c r="O9" s="5">
+        <v>14</v>
+      </c>
+      <c r="P9" s="5">
+        <v>660</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>780</v>
+      </c>
+      <c r="R9" s="8">
+        <v>8</v>
+      </c>
+      <c r="S9" s="5">
+        <v>8</v>
+      </c>
+      <c r="T9" s="5">
+        <v>780</v>
+      </c>
+      <c r="U9" s="13">
+        <v>1020</v>
+      </c>
+      <c r="V9" s="8">
+        <v>12</v>
+      </c>
+      <c r="W9" s="5">
+        <v>8</v>
+      </c>
+      <c r="X9" s="5">
+        <v>1020</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>1080</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>6</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>1080</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>1200</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>8</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>1200</v>
+      </c>
+      <c r="AG9" s="13">
+        <v>1320</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>4</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>1320</v>
+      </c>
+      <c r="AK9" s="13">
+        <v>1450</v>
+      </c>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>300</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>300</v>
+      </c>
+      <c r="I10" s="7">
+        <v>420</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>420</v>
+      </c>
+      <c r="M10" s="13">
+        <v>900</v>
+      </c>
+      <c r="N10" s="8">
+        <v>2</v>
+      </c>
+      <c r="O10" s="5">
+        <v>2</v>
+      </c>
+      <c r="P10" s="5">
+        <v>900</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>1080</v>
+      </c>
+      <c r="R10" s="8">
+        <v>1</v>
+      </c>
+      <c r="S10" s="5">
+        <v>1</v>
+      </c>
+      <c r="T10" s="5">
+        <v>1080</v>
+      </c>
+      <c r="U10" s="13">
+        <v>1450</v>
+      </c>
+      <c r="V10" s="8"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>300</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>300</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1260</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1260</v>
+      </c>
+      <c r="M11" s="13">
+        <v>1450</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>0</v>
+      </c>
+      <c r="R11" s="8"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="13">
+        <v>0</v>
+      </c>
+      <c r="V11" s="8"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>300</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>300</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1260</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1260</v>
+      </c>
+      <c r="M12" s="13">
+        <v>1450</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="13">
+        <v>0</v>
+      </c>
+      <c r="V12" s="8"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>300</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>300</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1450</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5">
+        <v>0</v>
+      </c>
+      <c r="U13" s="13">
+        <v>0</v>
+      </c>
+      <c r="V13" s="8"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="8">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>300</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>300</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1450</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="13">
+        <v>0</v>
+      </c>
+      <c r="V14" s="8"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>300</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>300</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1260</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1260</v>
+      </c>
+      <c r="M15" s="13">
+        <v>1450</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="8"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="8"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B16" s="8">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>300</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>300</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1450</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>0</v>
+      </c>
+      <c r="R16" s="8"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5">
+        <v>0</v>
+      </c>
+      <c r="U16" s="13">
+        <v>0</v>
+      </c>
+      <c r="V16" s="8"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>420</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>420</v>
+      </c>
+      <c r="I17" s="7">
+        <v>540</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>540</v>
+      </c>
+      <c r="M17" s="13">
+        <v>1450</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5">
+        <v>0</v>
+      </c>
+      <c r="U17" s="13">
+        <v>0</v>
+      </c>
+      <c r="V17" s="8"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B18" s="8">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>300</v>
+      </c>
+      <c r="F18" s="8">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>300</v>
+      </c>
+      <c r="I18" s="7">
+        <v>420</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <v>420</v>
+      </c>
+      <c r="M18" s="13">
+        <v>1450</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5">
+        <v>0</v>
+      </c>
+      <c r="U18" s="13">
+        <v>0</v>
+      </c>
+      <c r="V18" s="8"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="13">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="13">
+        <v>0</v>
+      </c>
+      <c r="V19" s="8"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B20" s="8">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>300</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>300</v>
+      </c>
+      <c r="I20" s="7">
+        <v>780</v>
+      </c>
+      <c r="J20" s="8">
+        <v>2</v>
+      </c>
+      <c r="K20" s="5">
+        <v>2</v>
+      </c>
+      <c r="L20" s="5">
+        <v>780</v>
+      </c>
+      <c r="M20" s="13">
+        <v>900</v>
+      </c>
+      <c r="N20" s="8">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5">
+        <v>1</v>
+      </c>
+      <c r="P20" s="5">
+        <v>900</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>1260</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0</v>
+      </c>
+      <c r="T20" s="5">
+        <v>1260</v>
+      </c>
+      <c r="U20" s="13">
+        <v>1450</v>
+      </c>
+      <c r="V20" s="8"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>360</v>
+      </c>
+      <c r="F21" s="8">
+        <v>10</v>
+      </c>
+      <c r="G21" s="5">
+        <v>8</v>
+      </c>
+      <c r="H21" s="6">
+        <v>360</v>
+      </c>
+      <c r="I21" s="7">
+        <v>480</v>
+      </c>
+      <c r="J21" s="8">
+        <v>4</v>
+      </c>
+      <c r="K21" s="5">
+        <v>3</v>
+      </c>
+      <c r="L21" s="5">
+        <v>480</v>
+      </c>
+      <c r="M21" s="13">
+        <v>660</v>
+      </c>
+      <c r="N21" s="8">
+        <v>3</v>
+      </c>
+      <c r="O21" s="5">
+        <v>2</v>
+      </c>
+      <c r="P21" s="5">
+        <v>660</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>780</v>
+      </c>
+      <c r="R21" s="8">
+        <v>4</v>
+      </c>
+      <c r="S21" s="5">
+        <v>6</v>
+      </c>
+      <c r="T21" s="5">
+        <v>780</v>
+      </c>
+      <c r="U21" s="13">
+        <v>900</v>
+      </c>
+      <c r="V21" s="8">
+        <v>6</v>
+      </c>
+      <c r="W21" s="5">
+        <v>2</v>
+      </c>
+      <c r="X21" s="5">
+        <v>900</v>
+      </c>
+      <c r="Y21" s="13">
+        <v>1020</v>
+      </c>
+      <c r="Z21" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>1020</v>
+      </c>
+      <c r="AC21" s="13">
+        <v>1200</v>
+      </c>
+      <c r="AD21" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>1200</v>
+      </c>
+      <c r="AG21" s="13">
+        <v>1450</v>
+      </c>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>540</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>2</v>
+      </c>
+      <c r="H22" s="6">
+        <v>540</v>
+      </c>
+      <c r="I22" s="7">
+        <v>900</v>
+      </c>
+      <c r="J22" s="8">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
+        <v>900</v>
+      </c>
+      <c r="M22" s="13">
+        <v>1450</v>
+      </c>
+      <c r="N22" s="8"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>0</v>
+      </c>
+      <c r="R22" s="8"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="13">
+        <v>0</v>
+      </c>
+      <c r="V22" s="8"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>300</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
+        <v>300</v>
+      </c>
+      <c r="I23" s="7">
+        <v>420</v>
+      </c>
+      <c r="J23" s="8">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5">
+        <v>420</v>
+      </c>
+      <c r="M23" s="13">
+        <v>540</v>
+      </c>
+      <c r="N23" s="8">
+        <v>2</v>
+      </c>
+      <c r="O23" s="5">
+        <v>2</v>
+      </c>
+      <c r="P23" s="5">
+        <v>540</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>660</v>
+      </c>
+      <c r="R23" s="8">
+        <v>4</v>
+      </c>
+      <c r="S23" s="5">
+        <v>3</v>
+      </c>
+      <c r="T23" s="5">
+        <v>660</v>
+      </c>
+      <c r="U23" s="13">
+        <v>780</v>
+      </c>
+      <c r="V23" s="8">
+        <v>1</v>
+      </c>
+      <c r="W23" s="5">
+        <v>1</v>
+      </c>
+      <c r="X23" s="5">
+        <v>780</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>1140</v>
+      </c>
+      <c r="Z23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>1140</v>
+      </c>
+      <c r="AC23" s="13">
+        <v>1320</v>
+      </c>
+      <c r="AD23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>1320</v>
+      </c>
+      <c r="AG23" s="13">
+        <v>1450</v>
+      </c>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>300</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>300</v>
+      </c>
+      <c r="I24" s="7">
+        <v>420</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>3</v>
+      </c>
+      <c r="L24" s="5">
+        <v>420</v>
+      </c>
+      <c r="M24" s="13">
+        <v>540</v>
+      </c>
+      <c r="N24" s="8">
+        <v>4</v>
+      </c>
+      <c r="O24" s="5">
+        <v>4</v>
+      </c>
+      <c r="P24" s="5">
+        <v>540</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>900</v>
+      </c>
+      <c r="R24" s="8">
+        <v>4</v>
+      </c>
+      <c r="S24" s="5">
+        <v>3</v>
+      </c>
+      <c r="T24" s="5">
+        <v>900</v>
+      </c>
+      <c r="U24" s="13">
+        <v>1020</v>
+      </c>
+      <c r="V24" s="8">
+        <v>2</v>
+      </c>
+      <c r="W24" s="5">
+        <v>3</v>
+      </c>
+      <c r="X24" s="5">
+        <v>1020</v>
+      </c>
+      <c r="Y24" s="13">
+        <v>1200</v>
+      </c>
+      <c r="Z24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>1200</v>
+      </c>
+      <c r="AC24" s="13">
+        <v>1320</v>
+      </c>
+      <c r="AD24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>1320</v>
+      </c>
+      <c r="AG24" s="13">
+        <v>1450</v>
+      </c>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>300</v>
+      </c>
+      <c r="F25" s="8">
+        <v>4</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
+        <v>300</v>
+      </c>
+      <c r="I25" s="7">
+        <v>420</v>
+      </c>
+      <c r="J25" s="8">
+        <v>2</v>
+      </c>
+      <c r="K25" s="5">
+        <v>4</v>
+      </c>
+      <c r="L25" s="5">
+        <v>420</v>
+      </c>
+      <c r="M25" s="13">
+        <v>540</v>
+      </c>
+      <c r="N25" s="8">
+        <v>4</v>
+      </c>
+      <c r="O25" s="5">
+        <v>4</v>
+      </c>
+      <c r="P25" s="5">
+        <v>540</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>660</v>
+      </c>
+      <c r="R25" s="8">
+        <v>5</v>
+      </c>
+      <c r="S25" s="5">
+        <v>5</v>
+      </c>
+      <c r="T25" s="5">
+        <v>660</v>
+      </c>
+      <c r="U25" s="13">
+        <v>840</v>
+      </c>
+      <c r="V25" s="8">
+        <v>3</v>
+      </c>
+      <c r="W25" s="5">
+        <v>3</v>
+      </c>
+      <c r="X25" s="5">
+        <v>840</v>
+      </c>
+      <c r="Y25" s="13">
+        <v>960</v>
+      </c>
+      <c r="Z25" s="8">
+        <v>4</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>6</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>960</v>
+      </c>
+      <c r="AC25" s="13">
+        <v>1080</v>
+      </c>
+      <c r="AD25" s="8">
+        <v>3</v>
+      </c>
+      <c r="AE25" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF25" s="5">
+        <v>1080</v>
+      </c>
+      <c r="AG25" s="13">
+        <v>1200</v>
+      </c>
+      <c r="AH25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="5">
+        <v>3</v>
+      </c>
+      <c r="AJ25" s="5">
+        <v>1200</v>
+      </c>
+      <c r="AK25" s="13">
+        <v>1320</v>
+      </c>
+      <c r="AL25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="5">
+        <v>1320</v>
+      </c>
+      <c r="AO25" s="13">
+        <v>1450</v>
+      </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>300</v>
+      </c>
+      <c r="F26" s="8">
+        <v>2</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6">
+        <v>300</v>
+      </c>
+      <c r="I26" s="7">
+        <v>420</v>
+      </c>
+      <c r="J26" s="8">
+        <v>3</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1</v>
+      </c>
+      <c r="L26" s="5">
+        <v>420</v>
+      </c>
+      <c r="M26" s="13">
+        <v>540</v>
+      </c>
+      <c r="N26" s="8">
+        <v>5</v>
+      </c>
+      <c r="O26" s="5">
+        <v>4</v>
+      </c>
+      <c r="P26" s="5">
+        <v>540</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>660</v>
+      </c>
+      <c r="R26" s="8">
+        <v>3</v>
+      </c>
+      <c r="S26" s="5">
+        <v>3</v>
+      </c>
+      <c r="T26" s="5">
+        <v>660</v>
+      </c>
+      <c r="U26" s="13">
+        <v>900</v>
+      </c>
+      <c r="V26" s="8">
+        <v>2</v>
+      </c>
+      <c r="W26" s="5">
+        <v>1</v>
+      </c>
+      <c r="X26" s="5">
+        <v>900</v>
+      </c>
+      <c r="Y26" s="13">
+        <v>1020</v>
+      </c>
+      <c r="Z26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="5">
+        <v>1020</v>
+      </c>
+      <c r="AC26" s="13">
+        <v>1320</v>
+      </c>
+      <c r="AD26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="5">
+        <v>1320</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>1450</v>
+      </c>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B27" s="8">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>360</v>
+      </c>
+      <c r="F27" s="8">
+        <v>15</v>
+      </c>
+      <c r="G27" s="5">
+        <v>15</v>
+      </c>
+      <c r="H27" s="6">
+        <v>360</v>
+      </c>
+      <c r="I27" s="7">
+        <v>480</v>
+      </c>
+      <c r="J27" s="8">
+        <v>17</v>
+      </c>
+      <c r="K27" s="5">
+        <v>12</v>
+      </c>
+      <c r="L27" s="5">
+        <v>480</v>
+      </c>
+      <c r="M27" s="13">
+        <v>660</v>
+      </c>
+      <c r="N27" s="8">
+        <v>15</v>
+      </c>
+      <c r="O27" s="5">
+        <v>15</v>
+      </c>
+      <c r="P27" s="5">
+        <v>660</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>780</v>
+      </c>
+      <c r="R27" s="8">
+        <v>12</v>
+      </c>
+      <c r="S27" s="5">
+        <v>15</v>
+      </c>
+      <c r="T27" s="5">
+        <v>780</v>
+      </c>
+      <c r="U27" s="13">
+        <v>960</v>
+      </c>
+      <c r="V27" s="8">
+        <v>15</v>
+      </c>
+      <c r="W27" s="5">
+        <v>12</v>
+      </c>
+      <c r="X27" s="5">
+        <v>960</v>
+      </c>
+      <c r="Y27" s="13">
+        <v>1200</v>
+      </c>
+      <c r="Z27" s="8">
+        <v>12</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>8</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>1200</v>
+      </c>
+      <c r="AC27" s="13">
+        <v>1320</v>
+      </c>
+      <c r="AD27" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE27" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF27" s="5">
+        <v>1320</v>
+      </c>
+      <c r="AG27" s="13">
+        <v>1450</v>
+      </c>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B28" s="8">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>300</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6">
+        <v>300</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1450</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="13">
+        <v>0</v>
+      </c>
+      <c r="N28" s="8"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>0</v>
+      </c>
+      <c r="R28" s="8"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5">
+        <v>0</v>
+      </c>
+      <c r="U28" s="13">
+        <v>0</v>
+      </c>
+      <c r="V28" s="8"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>300</v>
+      </c>
+      <c r="F29" s="8">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6">
+        <v>300</v>
+      </c>
+      <c r="I29" s="7">
+        <v>420</v>
+      </c>
+      <c r="J29" s="8">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1</v>
+      </c>
+      <c r="L29" s="5">
+        <v>420</v>
+      </c>
+      <c r="M29" s="13">
+        <v>540</v>
+      </c>
+      <c r="N29" s="8">
+        <v>2</v>
+      </c>
+      <c r="O29" s="5">
+        <v>2</v>
+      </c>
+      <c r="P29" s="5">
+        <v>540</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>660</v>
+      </c>
+      <c r="R29" s="8">
+        <v>1</v>
+      </c>
+      <c r="S29" s="5">
+        <v>1</v>
+      </c>
+      <c r="T29" s="5">
+        <v>660</v>
+      </c>
+      <c r="U29" s="13">
+        <v>1080</v>
+      </c>
+      <c r="V29" s="8">
+        <v>2</v>
+      </c>
+      <c r="W29" s="5">
+        <v>2</v>
+      </c>
+      <c r="X29" s="5">
+        <v>1080</v>
+      </c>
+      <c r="Y29" s="13">
+        <v>1450</v>
+      </c>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B30" s="8">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>300</v>
+      </c>
+      <c r="F30" s="8">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6">
+        <v>300</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1260</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
+        <v>1260</v>
+      </c>
+      <c r="M30" s="13">
+        <v>1450</v>
+      </c>
+      <c r="N30" s="8"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>0</v>
+      </c>
+      <c r="R30" s="8"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5">
+        <v>0</v>
+      </c>
+      <c r="U30" s="13">
+        <v>0</v>
+      </c>
+      <c r="V30" s="8"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>300</v>
+      </c>
+      <c r="F31" s="8">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6">
+        <v>300</v>
+      </c>
+      <c r="I31" s="7">
+        <v>420</v>
+      </c>
+      <c r="J31" s="8">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>1</v>
+      </c>
+      <c r="L31" s="5">
+        <v>420</v>
+      </c>
+      <c r="M31" s="13">
+        <v>540</v>
+      </c>
+      <c r="N31" s="8">
+        <v>1</v>
+      </c>
+      <c r="O31" s="5">
+        <v>2</v>
+      </c>
+      <c r="P31" s="5">
+        <v>540</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>660</v>
+      </c>
+      <c r="R31" s="8">
+        <v>1</v>
+      </c>
+      <c r="S31" s="5">
+        <v>1</v>
+      </c>
+      <c r="T31" s="5">
+        <v>660</v>
+      </c>
+      <c r="U31" s="13">
+        <v>780</v>
+      </c>
+      <c r="V31" s="8">
+        <v>2</v>
+      </c>
+      <c r="W31" s="5">
+        <v>2</v>
+      </c>
+      <c r="X31" s="5">
+        <v>780</v>
+      </c>
+      <c r="Y31" s="13">
+        <v>900</v>
+      </c>
+      <c r="Z31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>900</v>
+      </c>
+      <c r="AC31" s="13">
+        <v>1020</v>
+      </c>
+      <c r="AD31" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE31" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF31" s="5">
+        <v>1020</v>
+      </c>
+      <c r="AG31" s="13">
+        <v>1140</v>
+      </c>
+      <c r="AH31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="5">
+        <v>1140</v>
+      </c>
+      <c r="AK31" s="13">
+        <v>1450</v>
+      </c>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>300</v>
+      </c>
+      <c r="F32" s="8">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+      <c r="H32" s="6">
+        <v>300</v>
+      </c>
+      <c r="I32" s="7">
+        <v>420</v>
+      </c>
+      <c r="J32" s="8">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5">
+        <v>2</v>
+      </c>
+      <c r="L32" s="5">
+        <v>420</v>
+      </c>
+      <c r="M32" s="13">
+        <v>540</v>
+      </c>
+      <c r="N32" s="8">
+        <v>3</v>
+      </c>
+      <c r="O32" s="5">
+        <v>3</v>
+      </c>
+      <c r="P32" s="5">
+        <v>540</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>660</v>
+      </c>
+      <c r="R32" s="8">
+        <v>2</v>
+      </c>
+      <c r="S32" s="5">
+        <v>2</v>
+      </c>
+      <c r="T32" s="5">
+        <v>660</v>
+      </c>
+      <c r="U32" s="13">
+        <v>840</v>
+      </c>
+      <c r="V32" s="8">
+        <v>2</v>
+      </c>
+      <c r="W32" s="5">
+        <v>2</v>
+      </c>
+      <c r="X32" s="5">
+        <v>840</v>
+      </c>
+      <c r="Y32" s="13">
+        <v>960</v>
+      </c>
+      <c r="Z32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>960</v>
+      </c>
+      <c r="AC32" s="13">
+        <v>1080</v>
+      </c>
+      <c r="AD32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF32" s="5">
+        <v>1080</v>
+      </c>
+      <c r="AG32" s="13">
+        <v>1320</v>
+      </c>
+      <c r="AH32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="5">
+        <v>1320</v>
+      </c>
+      <c r="AK32" s="13">
+        <v>1450</v>
+      </c>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="B33" s="8">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <v>300</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6">
+        <v>300</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1450</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5">
+        <v>0</v>
+      </c>
+      <c r="M33" s="13">
+        <v>0</v>
+      </c>
+      <c r="N33" s="8"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>0</v>
+      </c>
+      <c r="R33" s="8"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5">
+        <v>0</v>
+      </c>
+      <c r="U33" s="13">
+        <v>0</v>
+      </c>
+      <c r="V33" s="8"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>300</v>
+      </c>
+      <c r="F34" s="8">
+        <v>3</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6">
+        <v>300</v>
+      </c>
+      <c r="I34" s="7">
+        <v>420</v>
+      </c>
+      <c r="J34" s="8">
+        <v>6</v>
+      </c>
+      <c r="K34" s="5">
+        <v>4</v>
+      </c>
+      <c r="L34" s="5">
+        <v>420</v>
+      </c>
+      <c r="M34" s="13">
+        <v>540</v>
+      </c>
+      <c r="N34" s="8">
+        <v>4</v>
+      </c>
+      <c r="O34" s="5">
+        <v>4</v>
+      </c>
+      <c r="P34" s="5">
+        <v>540</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>720</v>
+      </c>
+      <c r="R34" s="8">
+        <v>6</v>
+      </c>
+      <c r="S34" s="5">
+        <v>2</v>
+      </c>
+      <c r="T34" s="5">
+        <v>720</v>
+      </c>
+      <c r="U34" s="13">
+        <v>840</v>
+      </c>
+      <c r="V34" s="8">
+        <v>4</v>
+      </c>
+      <c r="W34" s="5">
+        <v>2</v>
+      </c>
+      <c r="X34" s="5">
+        <v>840</v>
+      </c>
+      <c r="Y34" s="13">
+        <v>960</v>
+      </c>
+      <c r="Z34" s="8">
+        <v>4</v>
+      </c>
+      <c r="AA34" s="5">
+        <v>6</v>
+      </c>
+      <c r="AB34" s="5">
+        <v>960</v>
+      </c>
+      <c r="AC34" s="13">
+        <v>1080</v>
+      </c>
+      <c r="AD34" s="8">
+        <v>3</v>
+      </c>
+      <c r="AE34" s="5">
+        <v>3</v>
+      </c>
+      <c r="AF34" s="5">
+        <v>1080</v>
+      </c>
+      <c r="AG34" s="13">
+        <v>1200</v>
+      </c>
+      <c r="AH34" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="5">
+        <v>3</v>
+      </c>
+      <c r="AJ34" s="5">
+        <v>1200</v>
+      </c>
+      <c r="AK34" s="13">
+        <v>1450</v>
+      </c>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B35" s="8">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>300</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6">
+        <v>300</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1260</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1260</v>
+      </c>
+      <c r="M35" s="13">
+        <v>1450</v>
+      </c>
+      <c r="N35" s="8"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>0</v>
+      </c>
+      <c r="R35" s="8"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5">
+        <v>0</v>
+      </c>
+      <c r="U35" s="13">
+        <v>0</v>
+      </c>
+      <c r="V35" s="8"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
+      <c r="B36" s="9">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12">
+        <v>300</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+      <c r="H36" s="11">
+        <v>300</v>
+      </c>
+      <c r="I36" s="12">
+        <v>1450</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10">
+        <v>0</v>
+      </c>
+      <c r="M36" s="14">
+        <v>0</v>
+      </c>
+      <c r="N36" s="9"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="14">
+        <v>0</v>
+      </c>
+      <c r="R36" s="9"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10">
+        <v>0</v>
+      </c>
+      <c r="U36" s="14">
+        <v>0</v>
+      </c>
+      <c r="V36" s="9"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="9"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <mergeCells count="10">
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="X1:Y1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>